--- a/data/CatThreatActor.xlsx
+++ b/data/CatThreatActor.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technip.sharepoint.com/sites/SecurityNewsDataConsolidation/Shared Documents/General/Project-1 Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{077890CD-EA0C-42FD-B9CD-85ECAD6ED1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{596A0FD2-033B-4AAC-A783-792AEC9DA1BD}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="13_ncr:1_{077890CD-EA0C-42FD-B9CD-85ECAD6ED1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7106A8C2-BD17-4E2F-907E-BEB2CDF55544}"/>
   <bookViews>
-    <workbookView xWindow="-49410" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A24C43C-700A-41FE-BBB9-5A06862718BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{3A24C43C-700A-41FE-BBB9-5A06862718BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Threat actors" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$219</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="439">
   <si>
     <t>Threat actor</t>
   </si>
@@ -384,9 +384,6 @@
     <t>OCGs</t>
   </si>
   <si>
-    <t>Cartel(s)</t>
-  </si>
-  <si>
     <t>Gangs</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>Islamist group</t>
   </si>
   <si>
-    <t>Terrorist group</t>
-  </si>
-  <si>
     <t>Daesh</t>
   </si>
   <si>
@@ -492,9 +486,6 @@
     <t>Haqqani Network</t>
   </si>
   <si>
-    <t>Hizbollah / HIzbullah / Hezbollah</t>
-  </si>
-  <si>
     <t>Islamic Movement of Uzbekistan</t>
   </si>
   <si>
@@ -658,6 +649,671 @@
   </si>
   <si>
     <t xml:space="preserve">Keywords </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> President
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prime minister
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congress
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Senate
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> House of representatives
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranking official
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> government official
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> political parties
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> political party
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> party
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> state delegation</t>
+  </si>
+  <si>
+    <t>state-owned</t>
+  </si>
+  <si>
+    <t>- military
+- army
+- state army
+- federal army
+- state troops
+- federal troops
+- state military
+- security forces
+- military forces
+- state forces</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> military
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> army
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> state army
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> federal army
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> state troops
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> federal troops
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> state military</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private military companies
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PMC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mercenaries
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private security
+companies
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PSC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wagner
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wagner Group
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Define Internacional
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aegis Defense Services
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Triple Canopy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DynCorp
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erinys
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unity Resources Group</t>
+  </si>
+  <si>
+    <t>- Militias
+- non-state armed groups
+- NSAG
+- organized armed groups
+- OAGs
+- Ejército de Liberación Nacional
+- ELN
+- Fuerzas Armadas Revolucionarias de Colombia
+- FARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Militias
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> non</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state armed groups
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NSAG
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> organized armed groups
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OAGs
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ejército de Liberación Nacional
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fuerzas Armadas Revolucionarias de Colombia
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> international organizations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UN
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Nations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Nations Security Council
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UNSC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Monetary Fund
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IMF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World Bank </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> associations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> civil society organization
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSO
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GreenPeace
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amnesty International
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Human Rights Watch
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Civil Rights Defenders</t>
+  </si>
+  <si>
+    <t>- Cybercriminals
+- Hackers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cybercriminals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hackers</t>
+  </si>
+  <si>
+    <t>- Separatists
+- Secessionist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Separatists
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secessionist</t>
+  </si>
+  <si>
+    <t>- Workers
+- Labourers
+- Company personnel
+- Company staff
+- Labor union
+- Trade union
+- Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Workers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Labourers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company personnel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company staff
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Labor union
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trade union</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> locals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local communities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nearby communities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Surrounding communities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local villagers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nearby villagers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local tribes </t>
+  </si>
+  <si>
+    <t>rival tribes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Citizens
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mass mobilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lone wolf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unidentified attacker</t>
+  </si>
+  <si>
+    <t>- Criminals
+- Thief
+- Thieves
+- Offender
+- Felon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Criminals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thief
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thieves
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Offender
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Felon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamist militants
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamist extremism
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamist extremists
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extremist group
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamist group
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daesh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daech
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamic State
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISIS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamic State of Iraq and the Levant
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISIL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamic State – Khorasan Province
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ISKP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Qaeda
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Qaida
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Qaida in the Arabian Peninsula
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AQAP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Qaida in the Indian Subcontinent
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AQIS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Qaida in the Islamic Maghreb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AQIM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abu Sayyaf Group
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASG
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palestinian Islamic Jihad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PIJ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taliban
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TTP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Islamic Jihad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baluchistan Liberation Army (BLA)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indian Mujahideen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- religious militants
+- christian militants
+- catholic militants
+- jewish militants
+- hindu militants </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> religious militants
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> christian militants
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> catholic militants
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jewish militants
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hindu militants </t>
+  </si>
+  <si>
+    <t>Separatist militants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> neo-nazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> white supremacist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> white supremacy
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aryan Strikeforce
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atomwaffen Division
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blood &amp; Honour (B&amp;H)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proud Boys
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Incels
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Azov Battalion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Base
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oath Keepers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patriot Prayer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rise Above Movement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russian Imperial Movement
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QAnon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> naxalites
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> communist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anarchist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> antifa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fascists
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> black block</t>
+  </si>
+  <si>
+    <t>- Extinction Rebellion
+- Environmental activists
+- Human-rights activists
+- Human rights activists
+- Activists 
+- students
+- graduates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Extinction Rebellion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Environmental activists</t>
+  </si>
+  <si>
+    <t>human-rights activists</t>
+  </si>
+  <si>
+    <t>human rights activists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activists </t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>graduates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything that does not match the above categories </t>
+  </si>
+  <si>
+    <t>Supreme Court</t>
+  </si>
+  <si>
+    <t>High Court</t>
+  </si>
+  <si>
+    <t>Judicial authorities</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>judicial authorities</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -674,113 +1330,21 @@
 - state delegation
 - state-owned companies
 - state-owned
-- ministry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> President
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prime minister
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Congress
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Senate
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> House of representatives
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranking official
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> government official
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> political parties
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> political party
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> party
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> state delegation</t>
-  </si>
-  <si>
-    <t>state-owned</t>
-  </si>
-  <si>
-    <t>- military
-- army
-- state army
-- federal army
-- state troops
-- federal troops
-- state military
-- security forces
-- military forces
-- state forces</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve"> military
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> army
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> state army
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> federal army
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> state troops
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> federal troops
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> state military</t>
+- ministry
+- Supreme Court
+- High Court
+- G7
+- G20
+- Judicial authorities</t>
   </si>
   <si>
     <t>- Private military companies
 - PMC
 - Mercenaries
-- Private security
-companies
+- Private security companies
 - PSC
 - Wagner
 - Wagner Group
-- Academy
 - Define Internacional
 - Aegis Defense Services
 - Triple Canopy
@@ -789,60 +1353,10 @@
 - Unity Resources Group</t>
   </si>
   <si>
-    <t xml:space="preserve"> Private military companies
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PMC
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mercenaries
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Private security
-companies
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PSC
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wagner
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wagner Group
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Academy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Define Internacional
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aegis Defense Services
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Triple Canopy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DynCorp
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Erinys
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unity Resources Group</t>
+    <t>Shia groups</t>
+  </si>
+  <si>
+    <t>Shia militants</t>
   </si>
   <si>
     <t>- Militias
@@ -853,91 +1367,36 @@
 - Ejército de Liberación Nacional
 - ELN
 - Fuerzas Armadas Revolucionarias de Colombia
-- FARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Militias
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state armed groups
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NSAG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> organized armed groups
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OAGs
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ejército de Liberación Nacional
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELN
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fuerzas Armadas Revolucionarias de Colombia
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FARC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- international organizations
-- UN
-- United Nations
-- United Nations Security Council
-- UNSC
-- International Monetary Fund
-- IMF
-- World Bank </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> international organizations
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UN
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> United Nations
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> United Nations Security Council
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UNSC
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Monetary Fund
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IMF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World Bank </t>
+- FARC
+- PMU
+- Private Military Unit
+- Shia militants
+- Shia groups
+- PMF
+- Popular Mobilization Forces
+- Shia resistance
+- Popular Mobilization Units
+- al-militiat al-waqiha</t>
+  </si>
+  <si>
+    <t>PMF</t>
+  </si>
+  <si>
+    <t>Popular Mobilization Forces</t>
+  </si>
+  <si>
+    <t>Popular Mobilization Units</t>
+  </si>
+  <si>
+    <t>al-militiat al-waqiha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization </t>
   </si>
   <si>
     <t>-non governmental organization
-- NGO(s)
-- INGO(s)
+- NGO
+- INGO
 - international non-governmental organization
 - associations
 - civil society organization
@@ -945,107 +1404,46 @@
 - GreenPeace
 - Amnesty International
 - Human Rights Watch
-- Civil Rights Defenders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nongovernmental organization
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NGO(s)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INGO(s)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> international non</t>
-  </si>
-  <si>
-    <t xml:space="preserve">governmental organization
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> associations
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> civil society organization
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CSO
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GreenPeace
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Amnesty International
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Human Rights Watch
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Civil Rights Defenders</t>
-  </si>
-  <si>
-    <t>- Cybercriminals
-- Hackers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cybercriminals
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hackers</t>
+- Civil Rights Defenders
+- NGOs
+- INGOs
+- civil society
+- CSOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> non governmental organization
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> international non governmental organization
+</t>
+  </si>
+  <si>
+    <t>INGOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civil society </t>
+  </si>
+  <si>
+    <t>CSOs</t>
   </si>
   <si>
     <t>- Separatists
+- Secessionists
+- Separatist
 - Secessionist</t>
   </si>
   <si>
-    <t xml:space="preserve"> Separatists
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Secessionist</t>
-  </si>
-  <si>
-    <t>- Workers
-- Labourers
-- Company personnel
-- Company staff
-- Labor union
-- Trade union
-- Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Workers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Labourers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company personnel
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Company staff
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Labor union
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trade union</t>
+    <t>Separatist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secessionists</t>
   </si>
   <si>
     <t>- locals
@@ -1055,113 +1453,112 @@
 - Local villagers
 - Nearby villagers
 - Local tribes
-- Rival tribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> locals
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Local communities
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nearby communities
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Surrounding communities
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Local villagers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nearby villagers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local tribes </t>
-  </si>
-  <si>
-    <t>rival tribes</t>
+- Rival tribes
+- tribes
+- communities
+- residents</t>
+  </si>
+  <si>
+    <t>tribes</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>residents</t>
   </si>
   <si>
     <t>- Citizens
-- mass protest(s)
-- mass demonstration(s)
-- mass mobilization</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Citizens
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mass protest(s)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mass demonstration(s)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mass mobilization</t>
+- mass protest
+- mass demonstration
+- mass mobilization
+- mass protests
+- mass demonstrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mass protest
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mass demonstration
+</t>
+  </si>
+  <si>
+    <t>mass protests</t>
+  </si>
+  <si>
+    <t>mass demonstrations</t>
+  </si>
+  <si>
+    <t>unidentified assaillant</t>
   </si>
   <si>
     <t>- Lone wolf
-- Unidentified attacker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lone wolf
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unidentified attacker</t>
-  </si>
-  <si>
-    <t>- Criminals
-- Thief
-- Thieves
-- Offender
-- Felon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Criminals
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thief
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thieves
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Offender
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Felon</t>
-  </si>
-  <si>
-    <t>- Organized criminal groups
-- OCGs
-- Cartel(s)
+- Unidentified attacker
+- Unidentified assaillant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organized criminal </t>
+  </si>
+  <si>
+    <t>OCG</t>
+  </si>
+  <si>
+    <t>Cartels</t>
+  </si>
+  <si>
+    <t>Cartel</t>
+  </si>
+  <si>
+    <t>Gang</t>
+  </si>
+  <si>
+    <t>Drug Trafficking</t>
+  </si>
+  <si>
+    <t>DTOs</t>
+  </si>
+  <si>
+    <t>- Organized criminal 
+- Organized criminal groups
+- OCG
+- OCG
+- Cartel
+- Cartels
+- Gang
 - Gangs
+- Drug Trafficking 
 - Drug Trafficking Organizations
-- DTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Organized criminal groups
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OCGs
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cartel(s)</t>
+- DTO
+- DTOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Organized criminal 
+</t>
+  </si>
+  <si>
+    <t>Drug trafficking</t>
+  </si>
+  <si>
+    <t>Daach</t>
+  </si>
+  <si>
+    <t>Daash</t>
+  </si>
+  <si>
+    <t>Hizbollah</t>
+  </si>
+  <si>
+    <t>Hizbullah</t>
+  </si>
+  <si>
+    <t>Hezbollah</t>
+  </si>
+  <si>
+    <t>Ansar al-Sunna</t>
+  </si>
+  <si>
+    <t>al-Sunna</t>
   </si>
   <si>
     <t>- Islamist militants
@@ -1169,7 +1566,6 @@
 - Islamist extremists
 - Extremist group
 - Islamist group
-- Terrorist group
 - Daesh
 - Daech
 - Islamic State
@@ -1191,12 +1587,11 @@
 - ASG
 - Al-Ashtar Brigades
 - AAB
--Al Shabaab
+- Al Shabaab
 - Ansar al-Islam (AI)
 - Boko Haram
 - Hamas
 - Haqqani Network
-- Hizbollah / HIzbullah / Hezbollah
 - Islamic Movement of Uzbekistan
 - IMU
 - Jaish-e-Mohammed
@@ -1213,253 +1608,26 @@
 - TTP
 - Islamic Jihad
 - Baluchistan Liberation Army (BLA)
- - Indian Mujahideen</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamist militants
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamist extremism
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamist extremists
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Extremist group
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamist group
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorist group
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Daesh
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Daech
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamic State
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ISIS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamic State of Iraq and the Levant
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ISIL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamic State – Khorasan Province
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ISKP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al Qaeda
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al Qaida
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al Qaida in the Arabian Peninsula
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AQAP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al Qaida in the Indian Subcontinent
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AQIS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al Qaida in the Islamic Maghreb
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AQIM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abu Sayyaf Group
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ashtar Brigades
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AAB
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Shabaab
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ansar al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islam (AI)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boko Haram
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamas
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Haqqani Network
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hizbollah / HIzbullah / Hezbollah
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamic Movement of Uzbekistan
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IMU
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jaish</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JeM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jemaah Islamiyyah
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JI
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kurdistan Workers Party
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PKK
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lashkar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tayyiba
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Palestinian Islamic Jihad
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PIJ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Taliban
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tehrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taliban Pakistan
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TTP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Islamic Jihad
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baluchistan Liberation Army (BLA)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indian Mujahideen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- religious militants
-- christian militants
-- catholic militants
-- jewish militants
-- hindu militants </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> religious militants
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> christian militants
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> catholic militants
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jewish militants
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hindu militants </t>
-  </si>
-  <si>
-    <t>Separatist militants</t>
+ - Indian Mujahideen
+- Daach
+- Daash
+- Hizbollah
+- Hizbullah
+- Hezbollah
+- Ansar al-Sunna
+- Al-Sunna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Ashtar Brigades</t>
+  </si>
+  <si>
+    <t>Idian Mujahideen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tehrik-e-Taliban Pakistan</t>
+  </si>
+  <si>
+    <t>Banderists</t>
   </si>
   <si>
     <t>- neo-nazi
@@ -1476,65 +1644,8 @@
 - Patriot Prayer
 - Rise Above Movement
 - Russian Imperial Movement
-- QAnon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> neo-nazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> white supremacist
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> white supremacy
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aryan Strikeforce
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Atomwaffen Division
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blood &amp; Honour (B&amp;H)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Proud Boys
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Incels
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Azov Battalion
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Base
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oath Keepers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patriot Prayer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rise Above Movement
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Russian Imperial Movement
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QAnon</t>
+- QAnon
+- Banderists</t>
   </si>
   <si>
     <t>- naxalites
@@ -1542,74 +1653,67 @@
 - anarchist
 - antifa
 - anti-fascists
-- black block</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> naxalites
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> communist
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anarchist
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> antifa
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fascists
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> black block</t>
-  </si>
-  <si>
-    <t>- Extinction Rebellion
-- Environmental activists
-- Human-rights activists
-- Human rights activists
-- Activists 
-- students
-- graduates</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Extinction Rebellion
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Environmental activists</t>
-  </si>
-  <si>
-    <t>human-rights activists</t>
-  </si>
-  <si>
-    <t>human rights activists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activists </t>
-  </si>
-  <si>
-    <t>students</t>
-  </si>
-  <si>
-    <t>graduates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everything that does not match the above categories </t>
+- black block
+- anti imperalist</t>
+  </si>
+  <si>
+    <t>anti-imperalist</t>
+  </si>
+  <si>
+    <t>NATO</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>African Union</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Association of Southeast Asian Nations</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>Shanghai Cooperation Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- international organizations
+- UN
+- United Nations
+- United Nations Security Council
+- UNSC
+- International Monetary Fund
+- IMF
+- World Bank 
+- World Health Organization
+- NATO
+- European Union
+- EU
+- African Union
+- AU
+- Association of Southeast Asian Nations
+- ASEAN
+- Shanghai Cooperation Organization </t>
+  </si>
+  <si>
+    <t>Associations of Southeast Asian Nations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai Cooperation Organization </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,6 +1817,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2012,19 +2120,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A486C90-CE44-45C3-AFB1-D0CC53D5099E}">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -2040,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -2072,7 +2180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -2080,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
@@ -2096,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
@@ -2104,7 +2212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
@@ -2128,7 +2236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
@@ -2144,7 +2252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -2152,1423 +2260,1632 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="10" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B76" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="10" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B77" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="10" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B78" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B79" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B80" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="10" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B86" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="10" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="10" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B90" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="10" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="10" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="10" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="10" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="10" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B96" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="10" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="10" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="10" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="10" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="10" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B101" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="10" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="10" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B103" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="10" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="10" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B105" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="10" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="10" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="10" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="10" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B109" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="10" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="10" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="10" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B112" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="10" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="10" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B114" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="10" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B115" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="10" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B116" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="10" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B117" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="10" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B118" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="10" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B120" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="10" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B122" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="10" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B126" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="10" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B128" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="10" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="10" t="s">
+      <c r="B129" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="10" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="10" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="10" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" s="10" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="10" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="10" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="10" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="10" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="10" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B140" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" s="10" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B141" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B122" s="10" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" s="10" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B143" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B124" s="10" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="10" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B126" s="10" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="10" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="10" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B129" s="10" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B130" s="10" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B131" s="10" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B151" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="10" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B133" s="10" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B134" s="10" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B135" s="10" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="10" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B137" s="10" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B157" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B138" s="10" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B139" s="10" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B140" s="10" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B160" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B141" s="10" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B142" s="10" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B143" s="10" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B144" s="10" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B164" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B145" s="10" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B165" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B146" s="10" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B166" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B147" s="10" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B148" s="10" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B149" s="10" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B169" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B150" s="10" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B151" s="10" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B171" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B152" s="10" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B153" s="10" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B173" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B154" s="10" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B174" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B155" s="10" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B175" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B156" s="10" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B176" s="10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B157" s="10" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B177" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B158" s="10" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="10" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B159" s="10" t="s">
+      <c r="B185" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B160" s="10" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B186" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="10" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B187" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B161" s="10" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B188" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B162" s="10" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B189" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" s="10" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164" s="10" t="s">
+      <c r="B190" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B165" s="10" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B191" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="10" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B192" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="10" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B193" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B167" s="10" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B194" s="10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B168" s="10" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B195" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B169" s="10" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B196" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B170" s="10" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B197" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B171" s="10" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B198" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B172" s="10" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B199" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" s="10" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B200" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174" s="10" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B201" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175" s="10" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B202" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" s="10" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B203" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" s="10" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B204" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B178" s="10" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B179" s="10" t="s">
+      <c r="B206" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B180" s="10" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B207" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="10" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B208" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B181" s="10" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B209" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182" s="10" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B210" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" s="10" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B184" s="10" t="s">
+      <c r="B212" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B185" s="10" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B213" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="10" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B214" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B186" s="10" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B215" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B187" s="10" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B216" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B188" s="10" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B217" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B189" s="10" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="10" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B190" s="10" t="s">
+      <c r="B218" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>204</v>
+      <c r="B219" s="10" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B219" xr:uid="{4A486C90-CE44-45C3-AFB1-D0CC53D5099E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -3576,112 +3893,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6F8592-E4B7-4D10-AE7F-9E87B4F4241F}">
-  <dimension ref="A1:BI23"/>
+  <dimension ref="A1:BN23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="170.25" customHeight="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="170.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
         <v>206</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>208</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>209</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>210</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>211</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>212</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>213</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>214</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>215</v>
-      </c>
-      <c r="L2" t="s">
-        <v>216</v>
-      </c>
-      <c r="M2" t="s">
-        <v>217</v>
-      </c>
-      <c r="N2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O2" t="s">
-        <v>219</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="111" customHeight="1">
+      <c r="S2" t="s">
+        <v>365</v>
+      </c>
+      <c r="T2" t="s">
+        <v>366</v>
+      </c>
+      <c r="U2" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" t="s">
+        <v>369</v>
+      </c>
+      <c r="W2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
         <v>221</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>222</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>223</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>224</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>225</v>
-      </c>
-      <c r="G3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" t="s">
-        <v>229</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -3693,773 +4025,896 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="225">
+    <row r="4" spans="1:23" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" t="s">
         <v>230</v>
       </c>
-      <c r="C4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>231</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>232</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>233</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>235</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>236</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>238</v>
       </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="5" spans="1:23" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="M4" t="s">
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
         <v>240</v>
       </c>
-      <c r="N4" t="s">
+      <c r="E5" t="s">
         <v>241</v>
       </c>
-      <c r="O4" t="s">
+      <c r="F5" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="G5" t="s">
         <v>243</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="H5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="103.5" hidden="1" customHeight="1">
-      <c r="B5" s="5" t="s">
+      <c r="I5" t="s">
         <v>245</v>
       </c>
-      <c r="C5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>246</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
         <v>247</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>248</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" t="s">
         <v>249</v>
       </c>
-      <c r="H5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K5" t="s">
-        <v>253</v>
-      </c>
-      <c r="L5" t="s">
-        <v>254</v>
-      </c>
-      <c r="M5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="135.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:23" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" t="s">
         <v>245</v>
       </c>
-      <c r="C6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="J6" t="s">
         <v>246</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>247</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>248</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>249</v>
       </c>
-      <c r="H6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6" t="s">
-        <v>252</v>
-      </c>
-      <c r="K6" t="s">
-        <v>253</v>
-      </c>
-      <c r="L6" t="s">
-        <v>254</v>
-      </c>
-      <c r="M6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="120">
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>373</v>
+      </c>
+      <c r="R6" t="s">
+        <v>376</v>
+      </c>
+      <c r="S6" t="s">
+        <v>377</v>
+      </c>
+      <c r="T6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" t="s">
+        <v>378</v>
+      </c>
+      <c r="V6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" t="s">
         <v>256</v>
       </c>
-      <c r="C7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
         <v>257</v>
       </c>
-      <c r="E7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="168.75" customHeight="1">
+      <c r="L7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M7" t="s">
+        <v>428</v>
+      </c>
+      <c r="N7" t="s">
+        <v>429</v>
+      </c>
+      <c r="O7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>432</v>
+      </c>
+      <c r="R7" t="s">
+        <v>437</v>
+      </c>
+      <c r="S7" t="s">
+        <v>434</v>
+      </c>
+      <c r="T7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="168.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>266</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>382</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" t="s">
-        <v>269</v>
+        <v>383</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="H8" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I8" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="K8" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="L8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="N8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="O8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="30">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>387</v>
+      </c>
+      <c r="R8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="30">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="105">
+        <v>391</v>
+      </c>
+      <c r="F10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="I11" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="J11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="120">
+    <row r="12" spans="1:23" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="I12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="J12" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="63" customHeight="1">
+        <v>285</v>
+      </c>
+      <c r="L12" t="s">
+        <v>393</v>
+      </c>
+      <c r="M12" t="s">
+        <v>394</v>
+      </c>
+      <c r="N12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" t="s">
-        <v>303</v>
+        <v>286</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+        <v>287</v>
+      </c>
+      <c r="H13" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="75">
+        <v>289</v>
+      </c>
+      <c r="F14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="E15" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="H15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="90">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="174" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>406</v>
+      </c>
+      <c r="I16" t="s">
+        <v>405</v>
+      </c>
+      <c r="J16" t="s">
+        <v>407</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
+        <v>412</v>
+      </c>
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" t="s">
+        <v>300</v>
+      </c>
+      <c r="I17" t="s">
+        <v>301</v>
+      </c>
+      <c r="J17" t="s">
+        <v>302</v>
+      </c>
+      <c r="K17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" t="s">
+        <v>304</v>
+      </c>
+      <c r="M17" t="s">
+        <v>305</v>
+      </c>
+      <c r="N17" t="s">
+        <v>306</v>
+      </c>
+      <c r="O17" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>309</v>
+      </c>
+      <c r="R17" t="s">
+        <v>310</v>
+      </c>
+      <c r="S17" t="s">
+        <v>311</v>
+      </c>
+      <c r="T17" t="s">
+        <v>312</v>
+      </c>
+      <c r="U17" t="s">
+        <v>313</v>
+      </c>
+      <c r="V17" t="s">
         <v>314</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="W17" t="s">
         <v>315</v>
       </c>
-      <c r="E16" t="s">
+      <c r="X17" t="s">
         <v>316</v>
       </c>
-      <c r="F16" t="s">
+      <c r="Y17" t="s">
         <v>317</v>
       </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:61" ht="409.5">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="Z17" t="s">
         <v>318</v>
       </c>
-      <c r="C17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="AA17" t="s">
         <v>319</v>
       </c>
-      <c r="E17" t="s">
+      <c r="AB17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>320</v>
       </c>
-      <c r="F17" t="s">
+      <c r="BA17" t="s">
         <v>321</v>
       </c>
-      <c r="G17" t="s">
+      <c r="BB17" t="s">
         <v>322</v>
       </c>
-      <c r="H17" t="s">
+      <c r="BC17" t="s">
+        <v>423</v>
+      </c>
+      <c r="BD17" t="s">
         <v>323</v>
       </c>
-      <c r="I17" t="s">
+      <c r="BE17" t="s">
         <v>324</v>
       </c>
-      <c r="J17" t="s">
+      <c r="BF17" t="s">
         <v>325</v>
       </c>
-      <c r="K17" t="s">
+      <c r="BG17" t="s">
         <v>326</v>
       </c>
-      <c r="L17" t="s">
+      <c r="BH17" t="s">
+        <v>413</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>414</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>415</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>416</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>417</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>418</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="M17" t="s">
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" t="s">
         <v>328</v>
       </c>
-      <c r="N17" t="s">
+      <c r="E18" t="s">
         <v>329</v>
       </c>
-      <c r="O17" t="s">
+      <c r="F18" t="s">
         <v>330</v>
       </c>
-      <c r="P17" t="s">
+      <c r="G18" t="s">
         <v>331</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="H18" t="s">
         <v>332</v>
       </c>
-      <c r="R17" t="s">
+    </row>
+    <row r="19" spans="1:66" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>333</v>
       </c>
-      <c r="S17" t="s">
+      <c r="B19" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" ht="232" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="s">
         <v>334</v>
       </c>
-      <c r="T17" t="s">
+      <c r="E20" t="s">
         <v>335</v>
       </c>
-      <c r="U17" t="s">
+      <c r="F20" t="s">
         <v>336</v>
       </c>
-      <c r="V17" t="s">
+      <c r="G20" t="s">
         <v>337</v>
       </c>
-      <c r="W17" t="s">
+      <c r="H20" t="s">
         <v>338</v>
       </c>
-      <c r="X17" t="s">
+      <c r="I20" t="s">
         <v>339</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="J20" t="s">
         <v>340</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="K20" t="s">
         <v>341</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="L20" t="s">
         <v>342</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="M20" t="s">
         <v>343</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="N20" t="s">
         <v>344</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="O20" t="s">
         <v>345</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="P20" t="s">
         <v>346</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="Q20" t="s">
         <v>347</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="R20" t="s">
         <v>348</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="S20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
         <v>349</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="E21" t="s">
         <v>350</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="F21" t="s">
         <v>351</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="G21" t="s">
         <v>352</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="H21" t="s">
         <v>353</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="I21" t="s">
         <v>354</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="J21" t="s">
         <v>355</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="K21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="s">
         <v>357</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="E22" t="s">
         <v>358</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="F22" t="s">
         <v>359</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="G22" t="s">
         <v>360</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="H22" t="s">
         <v>361</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="I22" t="s">
         <v>362</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="J22" t="s">
         <v>363</v>
       </c>
-      <c r="AW17" t="s">
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="AX17" t="s">
-        <v>357</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>366</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>368</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>369</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>357</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>370</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>371</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>372</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>373</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:61" ht="75">
-      <c r="A18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G18" t="s">
-        <v>379</v>
-      </c>
-      <c r="H18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:61" ht="30">
-      <c r="A19" t="s">
-        <v>381</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:61" ht="225">
-      <c r="A20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E20" t="s">
-        <v>384</v>
-      </c>
-      <c r="F20" t="s">
-        <v>385</v>
-      </c>
-      <c r="G20" t="s">
-        <v>386</v>
-      </c>
-      <c r="H20" t="s">
-        <v>387</v>
-      </c>
-      <c r="I20" t="s">
-        <v>388</v>
-      </c>
-      <c r="J20" t="s">
-        <v>389</v>
-      </c>
-      <c r="K20" t="s">
-        <v>390</v>
-      </c>
-      <c r="L20" t="s">
-        <v>391</v>
-      </c>
-      <c r="M20" t="s">
-        <v>392</v>
-      </c>
-      <c r="N20" t="s">
-        <v>393</v>
-      </c>
-      <c r="O20" t="s">
-        <v>394</v>
-      </c>
-      <c r="P20" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>396</v>
-      </c>
-      <c r="R20" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:61" ht="90">
-      <c r="A21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" t="s">
-        <v>399</v>
-      </c>
-      <c r="E21" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" t="s">
-        <v>401</v>
-      </c>
-      <c r="G21" t="s">
-        <v>402</v>
-      </c>
-      <c r="H21" t="s">
-        <v>403</v>
-      </c>
-      <c r="I21" t="s">
-        <v>404</v>
-      </c>
-      <c r="J21" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:61" ht="105">
-      <c r="A22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" t="s">
-        <v>407</v>
-      </c>
-      <c r="E22" t="s">
-        <v>408</v>
-      </c>
-      <c r="F22" t="s">
-        <v>409</v>
-      </c>
-      <c r="G22" t="s">
-        <v>410</v>
-      </c>
-      <c r="H22" t="s">
-        <v>411</v>
-      </c>
-      <c r="I22" t="s">
-        <v>412</v>
-      </c>
-      <c r="J22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:61">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4469,21 +4924,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010030772EE9577B3A4790277824BAE2B3CF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5ea45f886bfd1723a94c130562ae099">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e1288ec-a291-41cf-a8a9-3321b0157bd3" xmlns:ns3="4b8b7f73-54b1-41aa-a005-ca422e6181d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef3a2f455612334cc2c76e12c6aa6113" ns2:_="" ns3:_="">
     <xsd:import namespace="4e1288ec-a291-41cf-a8a9-3321b0157bd3"/>
@@ -4654,14 +5094,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C767858A-2B78-4A4E-B7D9-AC41A5112347}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{222414E2-566B-4FA2-80CA-798AFCA08FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4e1288ec-a291-41cf-a8a9-3321b0157bd3"/>
+    <ds:schemaRef ds:uri="4b8b7f73-54b1-41aa-a005-ca422e6181d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F12D391-1DF0-4745-A6BA-A7E5C70D5032}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F12D391-1DF0-4745-A6BA-A7E5C70D5032}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4e1288ec-a291-41cf-a8a9-3321b0157bd3"/>
+    <ds:schemaRef ds:uri="4b8b7f73-54b1-41aa-a005-ca422e6181d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{222414E2-566B-4FA2-80CA-798AFCA08FA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C767858A-2B78-4A4E-B7D9-AC41A5112347}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>